--- a/Code/Results/Cases/Case_0_142/diagnostic.xlsx
+++ b/Code/Results/Cases/Case_0_142/diagnostic.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>disconnected_elements</t>
-  </si>
-  <si>
-    <t>overload</t>
-  </si>
-  <si>
-    <t>wrong_switch_configuration</t>
   </si>
 </sst>
 </file>
@@ -380,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,22 +393,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code/Results/Cases/Case_0_142/diagnostic.xlsx
+++ b/Code/Results/Cases/Case_0_142/diagnostic.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>disconnected_elements</t>
+  </si>
+  <si>
+    <t>overload</t>
+  </si>
+  <si>
+    <t>wrong_switch_configuration</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +399,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
